--- a/StructureDefinition-AnimalSurveillance.xlsx
+++ b/StructureDefinition-AnimalSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T14:10:05+00:00</t>
+    <t>2024-04-10T14:13:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AnimalSurveillance.xlsx
+++ b/StructureDefinition-AnimalSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T14:13:50+00:00</t>
+    <t>2024-04-11T10:33:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -350,7 +350,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/animal-class</t>
+    <t>https://dhis2.org/fhir/ValueSet/animal-class-vs</t>
   </si>
 </sst>
 </file>
@@ -681,7 +681,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="40.73046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.43359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-AnimalSurveillance.xlsx
+++ b/StructureDefinition-AnimalSurveillance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="115">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T10:33:02+00:00</t>
+    <t>2024-04-11T10:34:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -351,6 +351,24 @@
   </si>
   <si>
     <t>https://dhis2.org/fhir/ValueSet/animal-class-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.animalSpecies</t>
+  </si>
+  <si>
+    <t>Animal Species</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/animal-species-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.animalType</t>
+  </si>
+  <si>
+    <t>Animal Type</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/animal-type-vs</t>
   </si>
 </sst>
 </file>
@@ -647,7 +665,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AK8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -681,7 +699,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.43359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.73046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1326,6 +1344,208 @@
         <v>71</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y7" s="2"/>
+      <c r="Z7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y8" s="2"/>
+      <c r="Z8" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/StructureDefinition-AnimalSurveillance.xlsx
+++ b/StructureDefinition-AnimalSurveillance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="175">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T10:34:35+00:00</t>
+    <t>2024-04-11T13:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -369,6 +369,187 @@
   </si>
   <si>
     <t>https://dhis2.org/fhir/ValueSet/animal-type-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.animalsAtRisk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count
+</t>
+  </si>
+  <si>
+    <t>Animals at Risk</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.animalsCases</t>
+  </si>
+  <si>
+    <t>Animals Cases</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.animalsDeaths</t>
+  </si>
+  <si>
+    <t>Animals Deaths</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.animalsDestroyed</t>
+  </si>
+  <si>
+    <t>Animals Destroyed</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.animalsSlaughtered</t>
+  </si>
+  <si>
+    <t>Animals Slaughtered</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.vaccination</t>
+  </si>
+  <si>
+    <t>If the animals are vaccinated. YES | NO | UNKNOWN</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/yes-no-unknown</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.vaccinated</t>
+  </si>
+  <si>
+    <t>Number of vaccinated animals</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.productionSystemOne</t>
+  </si>
+  <si>
+    <t>Production System One</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/production-system-one-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.productionSystemTwo</t>
+  </si>
+  <si>
+    <t>Production System Two</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/production-system-two-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.clinicalSigns</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Clinical signs. Note: can be more than one</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/clinical-signs-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.necropsyLesions</t>
+  </si>
+  <si>
+    <t>Necropsy lesions. Note: can be more than one</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/necropsy-lesions-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.surveillanceType</t>
+  </si>
+  <si>
+    <t>Surveillance Type.  PASSIVE | ROUTINE | ACTIVE | PDS | CAHO | GDS | SENTINEL</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/surveillance-type-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.infectionSource</t>
+  </si>
+  <si>
+    <t>Infection Source</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.diseaseStatus</t>
+  </si>
+  <si>
+    <t>Disease Status. CONFIRMED | DENIED | SUSPECTED</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/disease-status-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.disease</t>
+  </si>
+  <si>
+    <t>Disease</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/diseases-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.diseaseSubTypes</t>
+  </si>
+  <si>
+    <t>Disease Subtype(s)</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/disease-subtype-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.clade</t>
+  </si>
+  <si>
+    <t>Clade</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/clade-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.diagnosticSource</t>
+  </si>
+  <si>
+    <t>Diagnostic Source</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/diagnostic-source-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.diagnosisBasis</t>
+  </si>
+  <si>
+    <t>Diagnosis Basis. CLINICAL_SIGNS | NECROPSY_LESIONS | LABORATORY_TEST | OTHERS</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/diagnosis-basis-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.controlMeasures</t>
+  </si>
+  <si>
+    <t>Control Measure. Note: can be more than one</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/control-measures-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.treatments</t>
+  </si>
+  <si>
+    <t>Treatments. Note: can be more than one</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/treatments-vs</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.comment</t>
+  </si>
+  <si>
+    <t>Animal Surveillance Comments</t>
   </si>
 </sst>
 </file>
@@ -665,7 +846,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AK30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -674,8 +855,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.83203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.67578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -699,13 +880,13 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="45.73046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.25390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.67578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -1546,6 +1727,2244 @@
         <v>71</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y14" s="2"/>
+      <c r="Z14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y16" s="2"/>
+      <c r="Z16" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y17" s="2"/>
+      <c r="Z17" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y18" s="2"/>
+      <c r="Z18" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y19" s="2"/>
+      <c r="Z19" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y20" s="2"/>
+      <c r="Z20" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y22" s="2"/>
+      <c r="Z22" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y23" s="2"/>
+      <c r="Z23" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y24" s="2"/>
+      <c r="Z24" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y25" s="2"/>
+      <c r="Z25" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y26" s="2"/>
+      <c r="Z26" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y27" s="2"/>
+      <c r="Z27" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y28" s="2"/>
+      <c r="Z28" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y29" s="2"/>
+      <c r="Z29" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/StructureDefinition-AnimalSurveillance.xlsx
+++ b/StructureDefinition-AnimalSurveillance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="178">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T13:02:26+00:00</t>
+    <t>2024-04-12T09:40:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -335,6 +335,16 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.reportingDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>Reporting Date</t>
   </si>
   <si>
     <t>AnimalSurveillance.animalClass</t>
@@ -846,7 +856,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK30"/>
+  <dimension ref="A1:AK31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1437,7 +1447,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>80</v>
@@ -1485,11 +1495,13 @@
         <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="Y6" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Z6" t="s" s="2">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>71</v>
@@ -1510,7 +1522,7 @@
         <v>104</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>80</v>
@@ -1527,10 +1539,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1538,7 +1550,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>80</v>
@@ -1553,13 +1565,13 @@
         <v>71</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1586,7 +1598,7 @@
         <v>71</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y7" s="2"/>
       <c r="Z7" t="s" s="2">
@@ -1608,10 +1620,10 @@
         <v>71</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>80</v>
@@ -1654,7 +1666,7 @@
         <v>71</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s" s="2">
         <v>113</v>
@@ -1687,7 +1699,7 @@
         <v>71</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y8" s="2"/>
       <c r="Z8" t="s" s="2">
@@ -1755,13 +1767,13 @@
         <v>71</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="M9" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1788,13 +1800,11 @@
         <v>71</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>71</v>
@@ -1858,13 +1868,13 @@
         <v>71</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1935,10 +1945,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1961,13 +1971,13 @@
         <v>71</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2018,7 +2028,7 @@
         <v>71</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>72</v>
@@ -2038,10 +2048,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2064,13 +2074,13 @@
         <v>71</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2121,7 +2131,7 @@
         <v>71</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>72</v>
@@ -2141,10 +2151,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2167,13 +2177,13 @@
         <v>71</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2224,7 +2234,7 @@
         <v>71</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>72</v>
@@ -2244,10 +2254,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2270,13 +2280,13 @@
         <v>71</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2303,11 +2313,13 @@
         <v>71</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>71</v>
@@ -2325,7 +2337,7 @@
         <v>71</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>72</v>
@@ -2371,7 +2383,7 @@
         <v>71</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>130</v>
@@ -2404,13 +2416,11 @@
         <v>71</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>71</v>
@@ -2448,10 +2458,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2474,13 +2484,13 @@
         <v>71</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2507,11 +2517,13 @@
         <v>71</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="Y16" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Z16" t="s" s="2">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>71</v>
@@ -2529,7 +2541,7 @@
         <v>71</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>72</v>
@@ -2575,7 +2587,7 @@
         <v>71</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>135</v>
@@ -2608,7 +2620,7 @@
         <v>71</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
@@ -2664,25 +2676,25 @@
         <v>72</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="M18" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2709,11 +2721,11 @@
         <v>71</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>71</v>
@@ -2737,7 +2749,7 @@
         <v>72</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>71</v>
@@ -2751,10 +2763,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2765,7 +2777,7 @@
         <v>72</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>71</v>
@@ -2777,7 +2789,7 @@
         <v>71</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>142</v>
@@ -2810,7 +2822,7 @@
         <v>71</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
@@ -2832,13 +2844,13 @@
         <v>71</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH19" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>71</v>
@@ -2866,7 +2878,7 @@
         <v>72</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>71</v>
@@ -2878,7 +2890,7 @@
         <v>71</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>145</v>
@@ -2911,7 +2923,7 @@
         <v>71</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
@@ -2939,7 +2951,7 @@
         <v>72</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>71</v>
@@ -2967,7 +2979,7 @@
         <v>72</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>71</v>
@@ -2979,7 +2991,7 @@
         <v>71</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>148</v>
@@ -3012,13 +3024,11 @@
         <v>71</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>71</v>
@@ -3042,7 +3052,7 @@
         <v>72</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>71</v>
@@ -3056,10 +3066,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3070,7 +3080,7 @@
         <v>72</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>71</v>
@@ -3082,13 +3092,13 @@
         <v>71</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3115,11 +3125,13 @@
         <v>71</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>71</v>
@@ -3137,13 +3149,13 @@
         <v>71</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>71</v>
@@ -3183,7 +3195,7 @@
         <v>71</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>153</v>
@@ -3216,7 +3228,7 @@
         <v>71</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
@@ -3272,7 +3284,7 @@
         <v>72</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>71</v>
@@ -3284,7 +3296,7 @@
         <v>71</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>156</v>
@@ -3317,7 +3329,7 @@
         <v>71</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
@@ -3345,7 +3357,7 @@
         <v>72</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>71</v>
@@ -3373,7 +3385,7 @@
         <v>72</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>71</v>
@@ -3385,7 +3397,7 @@
         <v>71</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>159</v>
@@ -3418,7 +3430,7 @@
         <v>71</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
@@ -3446,7 +3458,7 @@
         <v>72</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>71</v>
@@ -3486,7 +3498,7 @@
         <v>71</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>162</v>
@@ -3519,7 +3531,7 @@
         <v>71</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
@@ -3587,7 +3599,7 @@
         <v>71</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>165</v>
@@ -3620,7 +3632,7 @@
         <v>71</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
@@ -3676,7 +3688,7 @@
         <v>72</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>71</v>
@@ -3688,7 +3700,7 @@
         <v>71</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>168</v>
@@ -3721,7 +3733,7 @@
         <v>71</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
@@ -3749,7 +3761,7 @@
         <v>72</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>71</v>
@@ -3777,7 +3789,7 @@
         <v>72</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>71</v>
@@ -3789,7 +3801,7 @@
         <v>71</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>171</v>
@@ -3822,7 +3834,7 @@
         <v>71</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
@@ -3850,7 +3862,7 @@
         <v>72</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>71</v>
@@ -3878,7 +3890,7 @@
         <v>72</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>71</v>
@@ -3890,7 +3902,7 @@
         <v>71</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>174</v>
@@ -3923,13 +3935,11 @@
         <v>71</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>71</v>
@@ -3953,7 +3963,7 @@
         <v>72</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>71</v>
@@ -3962,6 +3972,109 @@
         <v>71</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-AnimalSurveillance.xlsx
+++ b/StructureDefinition-AnimalSurveillance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="189">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T09:40:09+00:00</t>
+    <t>2024-04-12T11:15:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -347,7 +347,26 @@
     <t>Reporting Date</t>
   </si>
   <si>
-    <t>AnimalSurveillance.animalClass</t>
+    <t>AnimalSurveillance.epidemiology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Epidemiology Information</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.epidemiology.id</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.epidemiology.extension</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.epidemiology.modifierExtension</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.epidemiology.animalClass</t>
   </si>
   <si>
     <t xml:space="preserve">code
@@ -363,7 +382,7 @@
     <t>https://dhis2.org/fhir/ValueSet/animal-class-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.animalSpecies</t>
+    <t>AnimalSurveillance.epidemiology.animalSpecies</t>
   </si>
   <si>
     <t>Animal Species</t>
@@ -372,7 +391,7 @@
     <t>https://dhis2.org/fhir/ValueSet/animal-species-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.animalType</t>
+    <t>AnimalSurveillance.epidemiology.animalType</t>
   </si>
   <si>
     <t>Animal Type</t>
@@ -381,7 +400,7 @@
     <t>https://dhis2.org/fhir/ValueSet/animal-type-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.animalsAtRisk</t>
+    <t>AnimalSurveillance.epidemiology.animalsAtRisk</t>
   </si>
   <si>
     <t xml:space="preserve">Count
@@ -391,31 +410,31 @@
     <t>Animals at Risk</t>
   </si>
   <si>
-    <t>AnimalSurveillance.animalsCases</t>
+    <t>AnimalSurveillance.epidemiology.animalsCases</t>
   </si>
   <si>
     <t>Animals Cases</t>
   </si>
   <si>
-    <t>AnimalSurveillance.animalsDeaths</t>
+    <t>AnimalSurveillance.epidemiology.animalsDeaths</t>
   </si>
   <si>
     <t>Animals Deaths</t>
   </si>
   <si>
-    <t>AnimalSurveillance.animalsDestroyed</t>
+    <t>AnimalSurveillance.epidemiology.animalsDestroyed</t>
   </si>
   <si>
     <t>Animals Destroyed</t>
   </si>
   <si>
-    <t>AnimalSurveillance.animalsSlaughtered</t>
+    <t>AnimalSurveillance.epidemiology.animalsSlaughtered</t>
   </si>
   <si>
     <t>Animals Slaughtered</t>
   </si>
   <si>
-    <t>AnimalSurveillance.vaccination</t>
+    <t>AnimalSurveillance.epidemiology.vaccination</t>
   </si>
   <si>
     <t>If the animals are vaccinated. YES | NO | UNKNOWN</t>
@@ -424,13 +443,13 @@
     <t>https://dhis2.org/fhir/ValueSet/yes-no-unknown</t>
   </si>
   <si>
-    <t>AnimalSurveillance.vaccinated</t>
+    <t>AnimalSurveillance.epidemiology.vaccinated</t>
   </si>
   <si>
     <t>Number of vaccinated animals</t>
   </si>
   <si>
-    <t>AnimalSurveillance.productionSystemOne</t>
+    <t>AnimalSurveillance.epidemiology.productionSystemOne</t>
   </si>
   <si>
     <t>Production System One</t>
@@ -439,7 +458,7 @@
     <t>https://dhis2.org/fhir/ValueSet/production-system-one-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.productionSystemTwo</t>
+    <t>AnimalSurveillance.epidemiology.productionSystemTwo</t>
   </si>
   <si>
     <t>Production System Two</t>
@@ -484,7 +503,22 @@
     <t>Infection Source</t>
   </si>
   <si>
-    <t>AnimalSurveillance.diseaseStatus</t>
+    <t>AnimalSurveillance.diagnosis</t>
+  </si>
+  <si>
+    <t>Diagnosis Information</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.diagnosis.id</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.diagnosis.extension</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.diagnosis.modifierExtension</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.diagnosis.diseaseStatus</t>
   </si>
   <si>
     <t>Disease Status. CONFIRMED | DENIED | SUSPECTED</t>
@@ -493,7 +527,7 @@
     <t>https://dhis2.org/fhir/ValueSet/disease-status-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.disease</t>
+    <t>AnimalSurveillance.diagnosis.disease</t>
   </si>
   <si>
     <t>Disease</t>
@@ -502,7 +536,7 @@
     <t>https://dhis2.org/fhir/ValueSet/diseases-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.diseaseSubTypes</t>
+    <t>AnimalSurveillance.diagnosis.diseaseSubTypes</t>
   </si>
   <si>
     <t>Disease Subtype(s)</t>
@@ -511,7 +545,7 @@
     <t>https://dhis2.org/fhir/ValueSet/disease-subtype-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.clade</t>
+    <t>AnimalSurveillance.diagnosis.clade</t>
   </si>
   <si>
     <t>Clade</t>
@@ -520,7 +554,7 @@
     <t>https://dhis2.org/fhir/ValueSet/clade-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.diagnosticSource</t>
+    <t>AnimalSurveillance.diagnosis.diagnosticSource</t>
   </si>
   <si>
     <t>Diagnostic Source</t>
@@ -529,7 +563,7 @@
     <t>https://dhis2.org/fhir/ValueSet/diagnostic-source-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.diagnosisBasis</t>
+    <t>AnimalSurveillance.diagnosis.diagnosisBasis</t>
   </si>
   <si>
     <t>Diagnosis Basis. CLINICAL_SIGNS | NECROPSY_LESIONS | LABORATORY_TEST | OTHERS</t>
@@ -856,7 +890,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK31"/>
+  <dimension ref="A1:AK39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -865,8 +899,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.67578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.6484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="52.6484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -875,7 +909,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="17.66015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -896,7 +930,7 @@
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="52.6484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -1550,7 +1584,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>80</v>
@@ -1598,11 +1632,13 @@
         <v>71</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Y7" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Z7" t="s" s="2">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>71</v>
@@ -1623,7 +1659,7 @@
         <v>107</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>80</v>
@@ -1632,7 +1668,7 @@
         <v>71</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>71</v>
@@ -1640,10 +1676,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1666,13 +1702,13 @@
         <v>71</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1699,11 +1735,13 @@
         <v>71</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Y8" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Z8" t="s" s="2">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="AA8" t="s" s="2">
         <v>71</v>
@@ -1721,7 +1759,7 @@
         <v>71</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>72</v>
@@ -1736,26 +1774,26 @@
         <v>71</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>71</v>
@@ -1767,15 +1805,17 @@
         <v>71</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>71</v>
@@ -1800,84 +1840,90 @@
         <v>71</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Y9" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Z9" t="s" s="2">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="P10" t="s" s="2">
         <v>71</v>
       </c>
@@ -1925,30 +1971,30 @@
         <v>71</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>71</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1956,7 +2002,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>80</v>
@@ -1971,13 +2017,13 @@
         <v>71</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2004,13 +2050,11 @@
         <v>71</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" t="s" s="2">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>71</v>
@@ -2028,10 +2072,10 @@
         <v>71</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>80</v>
@@ -2048,10 +2092,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2074,13 +2118,13 @@
         <v>71</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="M12" t="s" s="2">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2107,13 +2151,11 @@
         <v>71</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>71</v>
@@ -2131,7 +2173,7 @@
         <v>71</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>72</v>
@@ -2151,10 +2193,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2177,13 +2219,13 @@
         <v>71</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2210,13 +2252,11 @@
         <v>71</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>71</v>
@@ -2234,7 +2274,7 @@
         <v>71</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>72</v>
@@ -2254,10 +2294,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2280,13 +2320,13 @@
         <v>71</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2337,7 +2377,7 @@
         <v>71</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>72</v>
@@ -2357,10 +2397,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2383,13 +2423,13 @@
         <v>71</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2416,11 +2456,13 @@
         <v>71</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>71</v>
@@ -2438,7 +2480,7 @@
         <v>71</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>72</v>
@@ -2458,10 +2500,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2484,13 +2526,13 @@
         <v>71</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2541,7 +2583,7 @@
         <v>71</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>72</v>
@@ -2561,10 +2603,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2587,13 +2629,13 @@
         <v>71</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2620,11 +2662,13 @@
         <v>71</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Y17" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Z17" t="s" s="2">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>71</v>
@@ -2642,7 +2686,7 @@
         <v>71</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>72</v>
@@ -2662,10 +2706,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2688,13 +2732,13 @@
         <v>71</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2721,11 +2765,13 @@
         <v>71</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Y18" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Z18" t="s" s="2">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>71</v>
@@ -2743,7 +2789,7 @@
         <v>71</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>72</v>
@@ -2763,10 +2809,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2777,7 +2823,7 @@
         <v>72</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>71</v>
@@ -2789,13 +2835,13 @@
         <v>71</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2822,11 +2868,11 @@
         <v>71</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>71</v>
@@ -2844,13 +2890,13 @@
         <v>71</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>71</v>
@@ -2864,10 +2910,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2878,7 +2924,7 @@
         <v>72</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>71</v>
@@ -2890,13 +2936,13 @@
         <v>71</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2923,11 +2969,13 @@
         <v>71</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Y20" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Z20" t="s" s="2">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>71</v>
@@ -2945,13 +2993,13 @@
         <v>71</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>71</v>
@@ -2965,10 +3013,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2991,13 +3039,13 @@
         <v>71</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3024,11 +3072,11 @@
         <v>71</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>71</v>
@@ -3046,7 +3094,7 @@
         <v>71</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>72</v>
@@ -3066,10 +3114,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3080,7 +3128,7 @@
         <v>72</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>71</v>
@@ -3092,13 +3140,13 @@
         <v>71</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3125,13 +3173,11 @@
         <v>71</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>71</v>
@@ -3149,13 +3195,13 @@
         <v>71</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>71</v>
@@ -3169,10 +3215,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3183,7 +3229,7 @@
         <v>72</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>71</v>
@@ -3195,13 +3241,13 @@
         <v>71</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3228,11 +3274,11 @@
         <v>71</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>71</v>
@@ -3250,13 +3296,13 @@
         <v>71</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>71</v>
@@ -3270,10 +3316,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3284,7 +3330,7 @@
         <v>72</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>71</v>
@@ -3296,13 +3342,13 @@
         <v>71</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3329,11 +3375,11 @@
         <v>71</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>71</v>
@@ -3351,13 +3397,13 @@
         <v>71</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>71</v>
@@ -3371,10 +3417,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3385,7 +3431,7 @@
         <v>72</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>71</v>
@@ -3397,13 +3443,13 @@
         <v>71</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3430,11 +3476,11 @@
         <v>71</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>71</v>
@@ -3452,13 +3498,13 @@
         <v>71</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>71</v>
@@ -3472,10 +3518,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3486,7 +3532,7 @@
         <v>72</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>71</v>
@@ -3498,13 +3544,13 @@
         <v>71</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3531,11 +3577,13 @@
         <v>71</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Y26" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Z26" t="s" s="2">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>71</v>
@@ -3553,13 +3601,13 @@
         <v>71</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>71</v>
@@ -3573,10 +3621,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3602,10 +3650,10 @@
         <v>108</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3632,11 +3680,13 @@
         <v>71</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Y27" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Z27" t="s" s="2">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>71</v>
@@ -3654,7 +3704,7 @@
         <v>71</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>72</v>
@@ -3666,7 +3716,7 @@
         <v>71</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>71</v>
@@ -3674,10 +3724,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3700,13 +3750,13 @@
         <v>71</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -3733,11 +3783,13 @@
         <v>71</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Y28" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Z28" t="s" s="2">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>71</v>
@@ -3755,7 +3807,7 @@
         <v>71</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>72</v>
@@ -3770,26 +3822,26 @@
         <v>71</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>71</v>
@@ -3801,15 +3853,17 @@
         <v>71</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>71</v>
@@ -3834,84 +3888,90 @@
         <v>71</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>71</v>
       </c>
@@ -3935,11 +3995,13 @@
         <v>71</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Y30" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Z30" t="s" s="2">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>71</v>
@@ -3957,30 +4019,30 @@
         <v>71</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>71</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4003,13 +4065,13 @@
         <v>71</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4036,13 +4098,11 @@
         <v>71</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>71</v>
@@ -4060,21 +4120,831 @@
         <v>71</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y32" s="2"/>
+      <c r="Z32" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y33" s="2"/>
+      <c r="Z33" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y34" s="2"/>
+      <c r="Z34" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK31" t="s" s="2">
+      <c r="M35" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y35" s="2"/>
+      <c r="Z35" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y36" s="2"/>
+      <c r="Z36" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y37" s="2"/>
+      <c r="Z37" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y38" s="2"/>
+      <c r="Z38" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-AnimalSurveillance.xlsx
+++ b/StructureDefinition-AnimalSurveillance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="205">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T11:15:39+00:00</t>
+    <t>2024-04-16T08:17:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -440,7 +440,7 @@
     <t>If the animals are vaccinated. YES | NO | UNKNOWN</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/yes-no-unknown</t>
+    <t>https://dhis2.org/fhir/ValueSet/yes-no-unknown-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.epidemiology.vaccinated</t>
@@ -467,7 +467,22 @@
     <t>https://dhis2.org/fhir/ValueSet/production-system-two-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.clinicalSigns</t>
+    <t>AnimalSurveillance.clinicalSignsAndNecropsyLesions</t>
+  </si>
+  <si>
+    <t>Clinical signs and necropsy lesions</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.clinicalSignsAndNecropsyLesions.id</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.clinicalSignsAndNecropsyLesions.extension</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.clinicalSignsAndNecropsyLesions.modifierExtension</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.clinicalSignsAndNecropsyLesions.clinicalSigns</t>
   </si>
   <si>
     <t>5</t>
@@ -479,7 +494,7 @@
     <t>https://dhis2.org/fhir/ValueSet/clinical-signs-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.necropsyLesions</t>
+    <t>AnimalSurveillance.clinicalSignsAndNecropsyLesions.necropsyLesions</t>
   </si>
   <si>
     <t>Necropsy lesions. Note: can be more than one</t>
@@ -488,7 +503,22 @@
     <t>https://dhis2.org/fhir/ValueSet/necropsy-lesions-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.surveillanceType</t>
+    <t>AnimalSurveillance.surveillanceTypeAndInfectionSource</t>
+  </si>
+  <si>
+    <t>Surveillance type and infection source. Surveillance and Infection source (select all that apply)</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.surveillanceTypeAndInfectionSource.id</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.surveillanceTypeAndInfectionSource.extension</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.surveillanceTypeAndInfectionSource.modifierExtension</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.surveillanceTypeAndInfectionSource.surveillanceType</t>
   </si>
   <si>
     <t>Surveillance Type.  PASSIVE | ROUTINE | ACTIVE | PDS | CAHO | GDS | SENTINEL</t>
@@ -497,10 +527,13 @@
     <t>https://dhis2.org/fhir/ValueSet/surveillance-type-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.infectionSource</t>
-  </si>
-  <si>
-    <t>Infection Source</t>
+    <t>AnimalSurveillance.surveillanceTypeAndInfectionSource.infectionSource</t>
+  </si>
+  <si>
+    <t>Infection Source.</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/infection-source-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.diagnosis</t>
@@ -572,7 +605,22 @@
     <t>https://dhis2.org/fhir/ValueSet/diagnosis-basis-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.controlMeasures</t>
+    <t>AnimalSurveillance.controlMeasuresAndTreatments</t>
+  </si>
+  <si>
+    <t>Control measures and treatment (select all that apply)</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.controlMeasuresAndTreatments.id</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.controlMeasuresAndTreatments.extension</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.controlMeasuresAndTreatments.modifierExtension</t>
+  </si>
+  <si>
+    <t>AnimalSurveillance.controlMeasuresAndTreatments.controlMeasures</t>
   </si>
   <si>
     <t>Control Measure. Note: can be more than one</t>
@@ -581,7 +629,7 @@
     <t>https://dhis2.org/fhir/ValueSet/control-measures-vs</t>
   </si>
   <si>
-    <t>AnimalSurveillance.treatments</t>
+    <t>AnimalSurveillance.controlMeasuresAndTreatments.treatments</t>
   </si>
   <si>
     <t>Treatments. Note: can be more than one</t>
@@ -890,7 +938,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK39"/>
+  <dimension ref="A1:AK51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -899,8 +947,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.6484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="52.6484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="69.85546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="69.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -930,7 +978,7 @@
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="52.6484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="68.765625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -3229,25 +3277,25 @@
         <v>72</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>148</v>
-      </c>
       <c r="M23" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3274,11 +3322,13 @@
         <v>71</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>71</v>
@@ -3302,13 +3352,13 @@
         <v>72</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>71</v>
@@ -3316,10 +3366,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3330,7 +3380,7 @@
         <v>72</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>71</v>
@@ -3342,13 +3392,13 @@
         <v>71</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3375,11 +3425,13 @@
         <v>71</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>71</v>
@@ -3397,13 +3449,13 @@
         <v>71</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>71</v>
@@ -3412,26 +3464,26 @@
         <v>71</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>71</v>
@@ -3443,15 +3495,17 @@
         <v>71</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>71</v>
@@ -3476,84 +3530,90 @@
         <v>71</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>71</v>
       </c>
@@ -3601,30 +3661,30 @@
         <v>71</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>71</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3635,7 +3695,7 @@
         <v>72</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>71</v>
@@ -3647,13 +3707,13 @@
         <v>71</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3680,13 +3740,11 @@
         <v>71</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>71</v>
@@ -3704,19 +3762,19 @@
         <v>71</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>71</v>
@@ -3724,10 +3782,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3738,7 +3796,7 @@
         <v>72</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>71</v>
@@ -3750,13 +3808,13 @@
         <v>71</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -3783,13 +3841,11 @@
         <v>71</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>71</v>
@@ -3807,13 +3863,13 @@
         <v>71</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>71</v>
@@ -3822,26 +3878,26 @@
         <v>71</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>71</v>
@@ -3853,17 +3909,15 @@
         <v>71</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>71</v>
@@ -3900,78 +3954,74 @@
         <v>71</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>71</v>
       </c>
@@ -4019,41 +4069,41 @@
         <v>71</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>71</v>
@@ -4065,15 +4115,17 @@
         <v>71</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>71</v>
@@ -4098,84 +4150,90 @@
         <v>71</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y31" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Z31" t="s" s="2">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>71</v>
       </c>
@@ -4199,11 +4257,13 @@
         <v>71</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y32" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Z32" t="s" s="2">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>71</v>
@@ -4221,30 +4281,30 @@
         <v>71</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>71</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4255,7 +4315,7 @@
         <v>72</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>71</v>
@@ -4270,10 +4330,10 @@
         <v>114</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4304,7 +4364,7 @@
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>71</v>
@@ -4322,13 +4382,13 @@
         <v>71</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>71</v>
@@ -4342,10 +4402,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4356,7 +4416,7 @@
         <v>72</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>71</v>
@@ -4371,10 +4431,10 @@
         <v>114</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4405,7 +4465,7 @@
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>71</v>
@@ -4423,13 +4483,13 @@
         <v>71</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>71</v>
@@ -4443,10 +4503,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4469,13 +4529,13 @@
         <v>71</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4502,11 +4562,13 @@
         <v>71</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y35" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Z35" t="s" s="2">
-        <v>177</v>
+        <v>71</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>71</v>
@@ -4524,7 +4586,7 @@
         <v>71</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>72</v>
@@ -4536,7 +4598,7 @@
         <v>71</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>71</v>
@@ -4544,10 +4606,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4570,13 +4632,13 @@
         <v>71</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4603,11 +4665,13 @@
         <v>71</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Z36" t="s" s="2">
-        <v>180</v>
+        <v>71</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>71</v>
@@ -4625,7 +4689,7 @@
         <v>71</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>72</v>
@@ -4640,26 +4704,26 @@
         <v>71</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>71</v>
@@ -4671,15 +4735,17 @@
         <v>71</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>182</v>
+        <v>88</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>71</v>
@@ -4704,84 +4770,90 @@
         <v>71</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y37" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Z37" t="s" s="2">
-        <v>183</v>
+        <v>71</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>71</v>
       </c>
@@ -4805,11 +4877,13 @@
         <v>71</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y38" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Z38" t="s" s="2">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>71</v>
@@ -4827,30 +4901,30 @@
         <v>71</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>71</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -4873,13 +4947,13 @@
         <v>71</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -4906,13 +4980,11 @@
         <v>71</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>71</v>
@@ -4930,21 +5002,1249 @@
         <v>71</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y40" s="2"/>
+      <c r="Z40" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y41" s="2"/>
+      <c r="Z41" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y42" s="2"/>
+      <c r="Z42" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK39" t="s" s="2">
+      <c r="M43" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y43" s="2"/>
+      <c r="Z43" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y44" s="2"/>
+      <c r="Z44" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y49" s="2"/>
+      <c r="Z49" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y50" s="2"/>
+      <c r="Z50" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-AnimalSurveillance.xlsx
+++ b/StructureDefinition-AnimalSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T08:17:53+00:00</t>
+    <t>2024-04-16T08:28:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -403,7 +403,7 @@
     <t>AnimalSurveillance.epidemiology.animalsAtRisk</t>
   </si>
   <si>
-    <t xml:space="preserve">Count
+    <t xml:space="preserve">positiveInt
 </t>
   </si>
   <si>

--- a/StructureDefinition-AnimalSurveillance.xlsx
+++ b/StructureDefinition-AnimalSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T08:28:58+00:00</t>
+    <t>2024-04-16T18:12:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AnimalSurveillance.xlsx
+++ b/StructureDefinition-AnimalSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T18:12:52+00:00</t>
+    <t>2024-04-17T08:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AnimalSurveillance.xlsx
+++ b/StructureDefinition-AnimalSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T08:50:12+00:00</t>
+    <t>2024-04-17T10:25:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AnimalSurveillance.xlsx
+++ b/StructureDefinition-AnimalSurveillance.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/StructureDefinition/AnimalSurveillance</t>
+    <t>https://example.org/fhir/StructureDefinition/AnimalSurveillance</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T10:25:03+00:00</t>
+    <t>2024-04-17T11:58:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -379,7 +379,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/animal-class-vs</t>
+    <t>https://example.org/fhir/ValueSet/animal-class-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.epidemiology.animalSpecies</t>
@@ -388,7 +388,7 @@
     <t>Animal Species</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/animal-species-vs</t>
+    <t>https://example.org/fhir/ValueSet/animal-species-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.epidemiology.animalType</t>
@@ -397,7 +397,7 @@
     <t>Animal Type</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/animal-type-vs</t>
+    <t>https://example.org/fhir/ValueSet/animal-type-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.epidemiology.animalsAtRisk</t>
@@ -440,7 +440,7 @@
     <t>If the animals are vaccinated. YES | NO | UNKNOWN</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/yes-no-unknown-vs</t>
+    <t>https://example.org/fhir/ValueSet/yes-no-unknown-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.epidemiology.vaccinated</t>
@@ -455,7 +455,7 @@
     <t>Production System One</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/production-system-one-vs</t>
+    <t>https://example.org/fhir/ValueSet/production-system-one-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.epidemiology.productionSystemTwo</t>
@@ -464,7 +464,7 @@
     <t>Production System Two</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/production-system-two-vs</t>
+    <t>https://example.org/fhir/ValueSet/production-system-two-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.clinicalSignsAndNecropsyLesions</t>
@@ -491,7 +491,7 @@
     <t>Clinical signs. Note: can be more than one</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/clinical-signs-vs</t>
+    <t>https://example.org/fhir/ValueSet/clinical-signs-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.clinicalSignsAndNecropsyLesions.necropsyLesions</t>
@@ -500,7 +500,7 @@
     <t>Necropsy lesions. Note: can be more than one</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/necropsy-lesions-vs</t>
+    <t>https://example.org/fhir/ValueSet/necropsy-lesions-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.surveillanceTypeAndInfectionSource</t>
@@ -524,7 +524,7 @@
     <t>Surveillance Type.  PASSIVE | ROUTINE | ACTIVE | PDS | CAHO | GDS | SENTINEL</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/surveillance-type-vs</t>
+    <t>https://example.org/fhir/ValueSet/surveillance-type-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.surveillanceTypeAndInfectionSource.infectionSource</t>
@@ -533,7 +533,7 @@
     <t>Infection Source.</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/infection-source-vs</t>
+    <t>https://example.org/fhir/ValueSet/infection-source-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.diagnosis</t>
@@ -557,7 +557,7 @@
     <t>Disease Status. CONFIRMED | DENIED | SUSPECTED</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/disease-status-vs</t>
+    <t>https://example.org/fhir/ValueSet/disease-status-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.diagnosis.disease</t>
@@ -566,7 +566,7 @@
     <t>Disease</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/diseases-vs</t>
+    <t>https://example.org/fhir/ValueSet/diseases-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.diagnosis.diseaseSubTypes</t>
@@ -575,7 +575,7 @@
     <t>Disease Subtype(s)</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/disease-subtype-vs</t>
+    <t>https://example.org/fhir/ValueSet/disease-subtype-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.diagnosis.clade</t>
@@ -584,7 +584,7 @@
     <t>Clade</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/clade-vs</t>
+    <t>https://example.org/fhir/ValueSet/clade-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.diagnosis.diagnosticSource</t>
@@ -593,7 +593,7 @@
     <t>Diagnostic Source</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/diagnostic-source-vs</t>
+    <t>https://example.org/fhir/ValueSet/diagnostic-source-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.diagnosis.diagnosisBasis</t>
@@ -602,7 +602,7 @@
     <t>Diagnosis Basis. CLINICAL_SIGNS | NECROPSY_LESIONS | LABORATORY_TEST | OTHERS</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/diagnosis-basis-vs</t>
+    <t>https://example.org/fhir/ValueSet/diagnosis-basis-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.controlMeasuresAndTreatments</t>
@@ -626,7 +626,7 @@
     <t>Control Measure. Note: can be more than one</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/control-measures-vs</t>
+    <t>https://example.org/fhir/ValueSet/control-measures-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.controlMeasuresAndTreatments.treatments</t>
@@ -635,7 +635,7 @@
     <t>Treatments. Note: can be more than one</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/treatments-vs</t>
+    <t>https://example.org/fhir/ValueSet/treatments-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.comment</t>
@@ -972,7 +972,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.25390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.21875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-AnimalSurveillance.xlsx
+++ b/StructureDefinition-AnimalSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T11:58:12+00:00</t>
+    <t>2024-04-17T13:28:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AnimalSurveillance.xlsx
+++ b/StructureDefinition-AnimalSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T13:28:15+00:00</t>
+    <t>2024-04-17T13:33:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AnimalSurveillance.xlsx
+++ b/StructureDefinition-AnimalSurveillance.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://example.org/fhir/StructureDefinition/AnimalSurveillance</t>
+    <t>https://dhis2.org/fhir/StructureDefinition/AnimalSurveillance</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T13:33:19+00:00</t>
+    <t>2024-04-22T10:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -379,7 +379,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/animal-class-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/animal-class-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.epidemiology.animalSpecies</t>
@@ -388,7 +388,7 @@
     <t>Animal Species</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/animal-species-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/animal-species-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.epidemiology.animalType</t>
@@ -397,7 +397,7 @@
     <t>Animal Type</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/animal-type-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/animal-type-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.epidemiology.animalsAtRisk</t>
@@ -440,7 +440,7 @@
     <t>If the animals are vaccinated. YES | NO | UNKNOWN</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/yes-no-unknown-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/yes-no-unknown-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.epidemiology.vaccinated</t>
@@ -455,7 +455,7 @@
     <t>Production System One</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/production-system-one-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/production-system-one-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.epidemiology.productionSystemTwo</t>
@@ -464,7 +464,7 @@
     <t>Production System Two</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/production-system-two-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/production-system-two-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.clinicalSignsAndNecropsyLesions</t>
@@ -491,7 +491,7 @@
     <t>Clinical signs. Note: can be more than one</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/clinical-signs-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/clinical-signs-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.clinicalSignsAndNecropsyLesions.necropsyLesions</t>
@@ -500,7 +500,7 @@
     <t>Necropsy lesions. Note: can be more than one</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/necropsy-lesions-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/necropsy-lesions-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.surveillanceTypeAndInfectionSource</t>
@@ -524,7 +524,7 @@
     <t>Surveillance Type.  PASSIVE | ROUTINE | ACTIVE | PDS | CAHO | GDS | SENTINEL</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/surveillance-type-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/surveillance-type-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.surveillanceTypeAndInfectionSource.infectionSource</t>
@@ -533,7 +533,7 @@
     <t>Infection Source.</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/infection-source-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/infection-source-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.diagnosis</t>
@@ -557,7 +557,7 @@
     <t>Disease Status. CONFIRMED | DENIED | SUSPECTED</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/disease-status-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/disease-status-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.diagnosis.disease</t>
@@ -566,7 +566,7 @@
     <t>Disease</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/diseases-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/diseases-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.diagnosis.diseaseSubTypes</t>
@@ -575,7 +575,7 @@
     <t>Disease Subtype(s)</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/disease-subtype-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/disease-subtype-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.diagnosis.clade</t>
@@ -584,7 +584,7 @@
     <t>Clade</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/clade-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/clade-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.diagnosis.diagnosticSource</t>
@@ -593,7 +593,7 @@
     <t>Diagnostic Source</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/diagnostic-source-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/diagnostic-source-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.diagnosis.diagnosisBasis</t>
@@ -602,7 +602,7 @@
     <t>Diagnosis Basis. CLINICAL_SIGNS | NECROPSY_LESIONS | LABORATORY_TEST | OTHERS</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/diagnosis-basis-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/diagnosis-basis-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.controlMeasuresAndTreatments</t>
@@ -626,7 +626,7 @@
     <t>Control Measure. Note: can be more than one</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/control-measures-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/control-measures-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.controlMeasuresAndTreatments.treatments</t>
@@ -635,7 +635,7 @@
     <t>Treatments. Note: can be more than one</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/treatments-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/treatments-vs</t>
   </si>
   <si>
     <t>AnimalSurveillance.comment</t>
@@ -972,7 +972,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.21875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.25390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-AnimalSurveillance.xlsx
+++ b/StructureDefinition-AnimalSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T10:30:53+00:00</t>
+    <t>2024-04-22T11:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
